--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="7995"/>
+    <workbookView windowWidth="19665" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="391">
   <si>
     <t>redditors_name</t>
   </si>
@@ -160,6 +160,9 @@
     <t>667won31</t>
   </si>
   <si>
+    <t>#BLM</t>
+  </si>
+  <si>
     <t>CaseySeiler</t>
   </si>
   <si>
@@ -169,7 +172,1021 @@
     <t>5qe12lpx</t>
   </si>
   <si>
+    <t>#COVID19</t>
+  </si>
+  <si>
     <t>mahoneyw</t>
+  </si>
+  <si>
+    <t>#Cubs</t>
+  </si>
+  <si>
+    <t>BarackObama</t>
+  </si>
+  <si>
+    <t>#DragRace</t>
+  </si>
+  <si>
+    <t>justinbieber</t>
+  </si>
+  <si>
+    <t>#ForTheH</t>
+  </si>
+  <si>
+    <t>katyperry</t>
+  </si>
+  <si>
+    <t>#GoCubsGo</t>
+  </si>
+  <si>
+    <t>rihanna</t>
+  </si>
+  <si>
+    <t>#MLB</t>
+  </si>
+  <si>
+    <t>taylorswift13</t>
+  </si>
+  <si>
+    <t>#MLBOpeningDay</t>
+  </si>
+  <si>
+    <t>Cristiano</t>
+  </si>
+  <si>
+    <t>#Mariners</t>
+  </si>
+  <si>
+    <t>realDonaldTrump</t>
+  </si>
+  <si>
+    <t>#NationalTequilaDay</t>
+  </si>
+  <si>
+    <t>ladygaga</t>
+  </si>
+  <si>
+    <t>#OpeningDay</t>
+  </si>
+  <si>
+    <t>TheEllenShow</t>
+  </si>
+  <si>
+    <t>#STLCards</t>
+  </si>
+  <si>
+    <t>ArianaGrande</t>
+  </si>
+  <si>
+    <t>#SmackDown</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>#TeamShea</t>
+  </si>
+  <si>
+    <t>KimKardashian</t>
+  </si>
+  <si>
+    <t>#adventure</t>
+  </si>
+  <si>
+    <t>jtimberlake</t>
+  </si>
+  <si>
+    <t>#aflswanshawks</t>
+  </si>
+  <si>
+    <t>selenagomez</t>
+  </si>
+  <si>
+    <t>#againstbullying</t>
+  </si>
+  <si>
+    <t>narendramodi</t>
+  </si>
+  <si>
+    <t>#allstar5</t>
+  </si>
+  <si>
+    <t>cnnbrk</t>
+  </si>
+  <si>
+    <t>#allstars5</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>#amazing</t>
+  </si>
+  <si>
+    <t>britneyspears</t>
+  </si>
+  <si>
+    <t>#americasgreatestmistake</t>
+  </si>
+  <si>
+    <t>ddlovato</t>
+  </si>
+  <si>
+    <t>#android</t>
+  </si>
+  <si>
+    <t>shakira</t>
+  </si>
+  <si>
+    <t>#aprilfollsday</t>
+  </si>
+  <si>
+    <t>jimmyfallon</t>
+  </si>
+  <si>
+    <t>#art</t>
+  </si>
+  <si>
+    <t>BillGates</t>
+  </si>
+  <si>
+    <t>#asimforthewin</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>#auspol</t>
+  </si>
+  <si>
+    <t>neymarjr</t>
+  </si>
+  <si>
+    <t>#australia</t>
+  </si>
+  <si>
+    <t>nytimes</t>
+  </si>
+  <si>
+    <t>#baby</t>
+  </si>
+  <si>
+    <t>KingJames</t>
+  </si>
+  <si>
+    <t>#backwheniwasakid</t>
+  </si>
+  <si>
+    <t>JLo</t>
+  </si>
+  <si>
+    <t>#bangbangcon</t>
+  </si>
+  <si>
+    <t>MileyCyrus</t>
+  </si>
+  <si>
+    <t>#bbcqt</t>
+  </si>
+  <si>
+    <t>BBCBreaking</t>
+  </si>
+  <si>
+    <t>#bcpoli</t>
+  </si>
+  <si>
+    <t>SrBachchan</t>
+  </si>
+  <si>
+    <t>#beach</t>
+  </si>
+  <si>
+    <t>Oprah</t>
+  </si>
+  <si>
+    <t>#change</t>
+  </si>
+  <si>
+    <t>BrunoMars</t>
+  </si>
+  <si>
+    <t>#chartbustersid</t>
+  </si>
+  <si>
+    <t>BeingSalmanKhan</t>
+  </si>
+  <si>
+    <t>#chickennoodlesoup</t>
+  </si>
+  <si>
+    <t>iamsrk</t>
+  </si>
+  <si>
+    <t>#childtrafficking</t>
+  </si>
+  <si>
+    <t>NiallOfficial</t>
+  </si>
+  <si>
+    <t>#christmas</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>#cleaneating</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>#cloud</t>
+  </si>
+  <si>
+    <t>akshaykumar</t>
+  </si>
+  <si>
+    <t>#coffe</t>
+  </si>
+  <si>
+    <t>PMOIndia</t>
+  </si>
+  <si>
+    <t>#competition</t>
+  </si>
+  <si>
+    <t>elonmusk</t>
+  </si>
+  <si>
+    <t>#contest</t>
+  </si>
+  <si>
+    <t>imVkohli</t>
+  </si>
+  <si>
+    <t>#cooking</t>
+  </si>
+  <si>
+    <t>SportsCenter</t>
+  </si>
+  <si>
+    <t>#cool</t>
+  </si>
+  <si>
+    <t>wizkhalifa</t>
+  </si>
+  <si>
+    <t>#crypto</t>
+  </si>
+  <si>
+    <t>KevinHart4real</t>
+  </si>
+  <si>
+    <t>#cute</t>
+  </si>
+  <si>
+    <t>espn</t>
+  </si>
+  <si>
+    <t>#cyber</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>#dancemoms</t>
+  </si>
+  <si>
+    <t>Harry_Styles</t>
+  </si>
+  <si>
+    <t>#dateline</t>
+  </si>
+  <si>
+    <t>KylieJenner</t>
+  </si>
+  <si>
+    <t>#delicious</t>
+  </si>
+  <si>
+    <t>LilTunechi</t>
+  </si>
+  <si>
+    <t>#demifact</t>
+  </si>
+  <si>
+    <t>realmadrid</t>
+  </si>
+  <si>
+    <t>#design</t>
+  </si>
+  <si>
+    <t>Louis_Tomlinson</t>
+  </si>
+  <si>
+    <t>#device</t>
+  </si>
+  <si>
+    <t>LiamPayne</t>
+  </si>
+  <si>
+    <t>#dog</t>
+  </si>
+  <si>
+    <t>sachin_rt</t>
+  </si>
+  <si>
+    <t>#dontdothisaftersex</t>
+  </si>
+  <si>
+    <t>FCBarcelona</t>
+  </si>
+  <si>
+    <t>#drawing</t>
+  </si>
+  <si>
+    <t>chrisbrown</t>
+  </si>
+  <si>
+    <t>#eatclean</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>#eathealthy</t>
+  </si>
+  <si>
+    <t>onedirection</t>
+  </si>
+  <si>
+    <t>#electronic</t>
+  </si>
+  <si>
+    <t>POTUS</t>
+  </si>
+  <si>
+    <t>#engineering</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>#england</t>
+  </si>
+  <si>
+    <t>kanyewest</t>
+  </si>
+  <si>
+    <t>#equality</t>
+  </si>
+  <si>
+    <t>aliciakeys</t>
+  </si>
+  <si>
+    <t>#ethereum</t>
+  </si>
+  <si>
+    <t>KendallJenner</t>
+  </si>
+  <si>
+    <t>#eventful</t>
+  </si>
+  <si>
+    <t>ChampionsLeague</t>
+  </si>
+  <si>
+    <t>#f4f</t>
+  </si>
+  <si>
+    <t>KAKA</t>
+  </si>
+  <si>
+    <t>#family</t>
+  </si>
+  <si>
+    <t>iHrithik</t>
+  </si>
+  <si>
+    <t>#fashion</t>
+  </si>
+  <si>
+    <t>zaynmalik</t>
+  </si>
+  <si>
+    <t>#fashionblogger</t>
+  </si>
+  <si>
+    <t>EmmaWatson</t>
+  </si>
+  <si>
+    <t>#fashioninspo</t>
+  </si>
+  <si>
+    <t>BBCWorld</t>
+  </si>
+  <si>
+    <t>#fashionista</t>
+  </si>
+  <si>
+    <t>ConanOBrien</t>
+  </si>
+  <si>
+    <t>#fit</t>
+  </si>
+  <si>
+    <t>HillaryClinton</t>
+  </si>
+  <si>
+    <t>#fitfam</t>
+  </si>
+  <si>
+    <t>khloekardashian</t>
+  </si>
+  <si>
+    <t>#fitfood</t>
+  </si>
+  <si>
+    <t>BTS_twt</t>
+  </si>
+  <si>
+    <t>#fitlife</t>
+  </si>
+  <si>
+    <t>deepikapadukone</t>
+  </si>
+  <si>
+    <t>#fitness</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>#fitnessaddict</t>
+  </si>
+  <si>
+    <t>priyankachopra</t>
+  </si>
+  <si>
+    <t>#fitnessmotivation</t>
+  </si>
+  <si>
+    <t>ActuallyNPH</t>
+  </si>
+  <si>
+    <t>#fitquote</t>
+  </si>
+  <si>
+    <t>aamir_khan</t>
+  </si>
+  <si>
+    <t>#fitspo</t>
+  </si>
+  <si>
+    <t>pitbull</t>
+  </si>
+  <si>
+    <t>#flashbackfriday</t>
+  </si>
+  <si>
+    <t>ShawnMendes</t>
+  </si>
+  <si>
+    <t>#florida</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>#flowers</t>
+  </si>
+  <si>
+    <t>danieltosh</t>
+  </si>
+  <si>
+    <t>#folklore</t>
+  </si>
+  <si>
+    <t>kourtneykardash</t>
+  </si>
+  <si>
+    <t>#follow</t>
+  </si>
+  <si>
+    <t>TheEconomist</t>
+  </si>
+  <si>
+    <t>#follow4follow</t>
+  </si>
+  <si>
+    <t>MesutOzil1088</t>
+  </si>
+  <si>
+    <t>#followback</t>
+  </si>
+  <si>
+    <t>andresiniesta8</t>
+  </si>
+  <si>
+    <t>#followforfollow</t>
+  </si>
+  <si>
+    <t>WhiteHouse</t>
+  </si>
+  <si>
+    <t>#followme</t>
+  </si>
+  <si>
+    <t>NatGeo</t>
+  </si>
+  <si>
+    <t>#food</t>
+  </si>
+  <si>
+    <t>coldplay</t>
+  </si>
+  <si>
+    <t>#foodcoma</t>
+  </si>
+  <si>
+    <t>arrahman</t>
+  </si>
+  <si>
+    <t>#foodgasm</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>#foodie</t>
+  </si>
+  <si>
+    <t>premierleague</t>
+  </si>
+  <si>
+    <t>#foodpic</t>
+  </si>
+  <si>
+    <t>ManUtd</t>
+  </si>
+  <si>
+    <t>#foodporn</t>
+  </si>
+  <si>
+    <t>Reuters</t>
+  </si>
+  <si>
+    <t>#foodstagram</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>#forthea</t>
+  </si>
+  <si>
+    <t>AnushkaSharma</t>
+  </si>
+  <si>
+    <t>#fortheh</t>
+  </si>
+  <si>
+    <t>MariahCarey</t>
+  </si>
+  <si>
+    <t>#freecodefridaycontest</t>
+  </si>
+  <si>
+    <t>AvrilLavigne</t>
+  </si>
+  <si>
+    <t>#fridaymorning</t>
+  </si>
+  <si>
+    <t>davidguetta</t>
+  </si>
+  <si>
+    <t>#friend</t>
+  </si>
+  <si>
+    <t>NICKIMINAJ</t>
+  </si>
+  <si>
+    <t>#friends</t>
+  </si>
+  <si>
+    <t>ricky_martin</t>
+  </si>
+  <si>
+    <t>#friyay</t>
+  </si>
+  <si>
+    <t>#fun</t>
+  </si>
+  <si>
+    <t>#funny</t>
+  </si>
+  <si>
+    <t>#fursuitfriday</t>
+  </si>
+  <si>
+    <t>#gadget</t>
+  </si>
+  <si>
+    <t>#getalife</t>
+  </si>
+  <si>
+    <t>#getaway</t>
+  </si>
+  <si>
+    <t>#getfit</t>
+  </si>
+  <si>
+    <t>#instatravel</t>
+  </si>
+  <si>
+    <t>#instavacation</t>
+  </si>
+  <si>
+    <t>#internationalwomensday</t>
+  </si>
+  <si>
+    <t>#ios</t>
+  </si>
+  <si>
+    <t>#iphone</t>
+  </si>
+  <si>
+    <t>#iphoneonly</t>
+  </si>
+  <si>
+    <t>#itdoesnotmakeyoucool</t>
+  </si>
+  <si>
+    <t>#itgetsbetter</t>
+  </si>
+  <si>
+    <t>#iwanttopunchpeoplewho</t>
+  </si>
+  <si>
+    <t>#iwillnevverunderstand</t>
+  </si>
+  <si>
+    <t>#justsayin</t>
+  </si>
+  <si>
+    <t>#kindle</t>
+  </si>
+  <si>
+    <t>#kissingbooth2</t>
+  </si>
+  <si>
+    <t>#l4l</t>
+  </si>
+  <si>
+    <t>#liamfact</t>
+  </si>
+  <si>
+    <t>#liamfacts</t>
+  </si>
+  <si>
+    <t>#life</t>
+  </si>
+  <si>
+    <t>#lifestyle</t>
+  </si>
+  <si>
+    <t>#lightningstrikes</t>
+  </si>
+  <si>
+    <t>#like4like</t>
+  </si>
+  <si>
+    <t>#likeforlike</t>
+  </si>
+  <si>
+    <t>#lol</t>
+  </si>
+  <si>
+    <t>#london</t>
+  </si>
+  <si>
+    <t>#lookbook</t>
+  </si>
+  <si>
+    <t>#love</t>
+  </si>
+  <si>
+    <t>#loveisallweneed</t>
+  </si>
+  <si>
+    <t>#lufc</t>
+  </si>
+  <si>
+    <t>#maga</t>
+  </si>
+  <si>
+    <t>#makeachange</t>
+  </si>
+  <si>
+    <t>#makeup</t>
+  </si>
+  <si>
+    <t>#makeupaddict</t>
+  </si>
+  <si>
+    <t>#me</t>
+  </si>
+  <si>
+    <t>#meanie</t>
+  </si>
+  <si>
+    <t>#medbikini</t>
+  </si>
+  <si>
+    <t>#medicaid</t>
+  </si>
+  <si>
+    <t>#meetthepress</t>
+  </si>
+  <si>
+    <t>#melbourne</t>
+  </si>
+  <si>
+    <t>#mensfashion</t>
+  </si>
+  <si>
+    <t>#mental</t>
+  </si>
+  <si>
+    <t>#mentalhealth</t>
+  </si>
+  <si>
+    <t>#menwhocook</t>
+  </si>
+  <si>
+    <t>#merrychristmas</t>
+  </si>
+  <si>
+    <t>#metoo</t>
+  </si>
+  <si>
+    <t>#miami</t>
+  </si>
+  <si>
+    <t>#middlefingerup</t>
+  </si>
+  <si>
+    <t>#middleschoolmemories</t>
+  </si>
+  <si>
+    <t>#mikebully</t>
+  </si>
+  <si>
+    <t>#mittromney</t>
+  </si>
+  <si>
+    <t>#mobile</t>
+  </si>
+  <si>
+    <t>#model</t>
+  </si>
+  <si>
+    <t>#mondaymotivation</t>
+  </si>
+  <si>
+    <t>#morningrushatl</t>
+  </si>
+  <si>
+    <t>#motivation</t>
+  </si>
+  <si>
+    <t>#music</t>
+  </si>
+  <si>
+    <t>#my</t>
+  </si>
+  <si>
+    <t>#mychance</t>
+  </si>
+  <si>
+    <t>#mytravelgram</t>
+  </si>
+  <si>
+    <t>#nationaltequiladay</t>
+  </si>
+  <si>
+    <t>#nature</t>
+  </si>
+  <si>
+    <t>#neverwouldiever</t>
+  </si>
+  <si>
+    <t>#newbedon</t>
+  </si>
+  <si>
+    <t>#newprofilepic</t>
+  </si>
+  <si>
+    <t>#news</t>
+  </si>
+  <si>
+    <t>#night</t>
+  </si>
+  <si>
+    <t>#noexcuses</t>
+  </si>
+  <si>
+    <t>#nofilter</t>
+  </si>
+  <si>
+    <t>#nom</t>
+  </si>
+  <si>
+    <t>#nomorebullies</t>
+  </si>
+  <si>
+    <t>#notalone</t>
+  </si>
+  <si>
+    <t>#notfair</t>
+  </si>
+  <si>
+    <t>#nutrition</t>
+  </si>
+  <si>
+    <t>#nyc</t>
+  </si>
+  <si>
+    <t>#obamagate</t>
+  </si>
+  <si>
+    <t>#obese</t>
+  </si>
+  <si>
+    <t>#olympics</t>
+  </si>
+  <si>
+    <t>#ootd</t>
+  </si>
+  <si>
+    <t>#openingday2020</t>
+  </si>
+  <si>
+    <t>#operationpurplesky</t>
+  </si>
+  <si>
+    <t>#opioid</t>
+  </si>
+  <si>
+    <t>#oscars</t>
+  </si>
+  <si>
+    <t>#overth</t>
+  </si>
+  <si>
+    <t>#party</t>
+  </si>
+  <si>
+    <t>#peace</t>
+  </si>
+  <si>
+    <t>#peoplewhowerebulliedbutnowsuccessful</t>
+  </si>
+  <si>
+    <t>#photo</t>
+  </si>
+  <si>
+    <t>#photography</t>
+  </si>
+  <si>
+    <t>#photooftheday</t>
+  </si>
+  <si>
+    <t>#pickone</t>
+  </si>
+  <si>
+    <t>#picoftheday</t>
+  </si>
+  <si>
+    <t>#pink</t>
+  </si>
+  <si>
+    <t>#pinkshirtday</t>
+  </si>
+  <si>
+    <t>#pizza</t>
+  </si>
+  <si>
+    <t>#politics</t>
+  </si>
+  <si>
+    <t>#portland</t>
+  </si>
+  <si>
+    <t>#portlandprotest</t>
+  </si>
+  <si>
+    <t>#powertrip</t>
+  </si>
+  <si>
+    <t>#pressforprogress</t>
+  </si>
+  <si>
+    <t>#pretty</t>
+  </si>
+  <si>
+    <t>#puppy</t>
+  </si>
+  <si>
+    <t>#realtalk</t>
+  </si>
+  <si>
+    <t>#redv</t>
+  </si>
+  <si>
+    <t>#repost</t>
+  </si>
+  <si>
+    <t>#ripericmonster</t>
+  </si>
+  <si>
+    <t>#roadtrip</t>
+  </si>
+  <si>
+    <t>#rootedinoakland</t>
+  </si>
+  <si>
+    <t>#running</t>
+  </si>
+  <si>
+    <t>#sadtweet</t>
+  </si>
+  <si>
+    <t>#safety</t>
+  </si>
+  <si>
+    <t>#satchat</t>
+  </si>
+  <si>
+    <t>#saturdaymorning</t>
+  </si>
+  <si>
+    <t>#savealife</t>
+  </si>
+  <si>
+    <t>#schoolmemories</t>
+  </si>
+  <si>
+    <t>#schools</t>
+  </si>
+  <si>
+    <t>#sea</t>
+  </si>
+  <si>
+    <t>#secondaryschoolconfessions</t>
+  </si>
+  <si>
+    <t>#selfie</t>
+  </si>
+  <si>
+    <t>#shinedown</t>
+  </si>
+  <si>
+    <t>#shinedown2012</t>
+  </si>
+  <si>
+    <t>#shoplocal</t>
+  </si>
+  <si>
+    <t>#sky</t>
+  </si>
+  <si>
+    <t>#smackdown</t>
+  </si>
+  <si>
+    <t>#smile</t>
+  </si>
+  <si>
+    <t>#snack</t>
+  </si>
+  <si>
+    <t>#socialmedia</t>
+  </si>
+  <si>
+    <t>#soda</t>
+  </si>
+  <si>
+    <t>#song</t>
+  </si>
+  <si>
+    <t>#sorrynotsorry</t>
+  </si>
+  <si>
+    <t>#sosad</t>
+  </si>
+  <si>
+    <t>#soundcloud</t>
   </si>
 </sst>
 </file>
@@ -177,12 +1194,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,20 +1219,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -226,32 +1240,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,11 +1262,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +1297,35 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,7 +1338,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,61 +1368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,31 +1384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,31 +1402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,49 +1432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +1444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +1474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +1486,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +1558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,17 +1575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,26 +1602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,16 +1633,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,163 +1655,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,10 +2091,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1098,6 +2102,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="16.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="19.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:6">
@@ -1127,13 +2132,13 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1147,7 +2152,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1167,7 +2172,7 @@
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1213,7 +2218,7 @@
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
@@ -1227,13 +2232,13 @@
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
@@ -1248,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -1264,31 +2269,1523 @@
         <v>47</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:6">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" spans="2:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" spans="2:6">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="12.75" spans="4:4">
+      <c r="D11" s="3"/>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" spans="4:6">
       <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="5:6">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="5:6">
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="5:6">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="5:6">
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="5:6">
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="5:6">
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="5:6">
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="5:6">
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="5:6">
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="5:6">
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="5:6">
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="5:6">
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="5:6">
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="5:6">
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="5:6">
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="5:6">
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="5:6">
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="5:6">
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="5:6">
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="5:6">
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="5:6">
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="5:6">
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="5:6">
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="5:6">
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="5:6">
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="5:6">
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="5:6">
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="5:6">
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="5:6">
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="5:6">
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="5:6">
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="5:6">
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="5:6">
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="5:6">
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="5:6">
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="5:6">
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="5:6">
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="5:6">
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="5:6">
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="5:6">
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="5:6">
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="5:6">
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="5:6">
+      <c r="E55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="5:6">
+      <c r="E56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="5:6">
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="5:6">
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="5:6">
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="5:6">
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="5:6">
+      <c r="E61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="5:6">
+      <c r="E62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="5:6">
+      <c r="E63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="5:6">
+      <c r="E64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="5:6">
+      <c r="E65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="5:6">
+      <c r="E66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="5:6">
+      <c r="E67" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="5:6">
+      <c r="E68" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="5:6">
+      <c r="E69" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="5:6">
+      <c r="E70" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="5:6">
+      <c r="E71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="5:6">
+      <c r="E72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="5:6">
+      <c r="E73" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="5:6">
+      <c r="E74" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="5:6">
+      <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="5:6">
+      <c r="E76" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="5:6">
+      <c r="E77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="5:6">
+      <c r="E78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="5:6">
+      <c r="E79" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="5:6">
+      <c r="E80" t="s">
+        <v>192</v>
+      </c>
+      <c r="F80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="5:6">
+      <c r="E81" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="5:6">
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="5:6">
+      <c r="E83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="5:6">
+      <c r="E84" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="5:6">
+      <c r="E85" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="5:6">
+      <c r="E86" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="5:6">
+      <c r="E87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="5:6">
+      <c r="E88" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="5:6">
+      <c r="E89" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="5:6">
+      <c r="E90" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="5:6">
+      <c r="E91" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="5:6">
+      <c r="E92" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="5:6">
+      <c r="E93" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="5:6">
+      <c r="E94" t="s">
+        <v>220</v>
+      </c>
+      <c r="F94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="5:6">
+      <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="5:6">
+      <c r="E96" t="s">
+        <v>224</v>
+      </c>
+      <c r="F96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="5:6">
+      <c r="E97" t="s">
+        <v>226</v>
+      </c>
+      <c r="F97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="5:6">
+      <c r="E98" t="s">
+        <v>228</v>
+      </c>
+      <c r="F98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="5:6">
+      <c r="E99" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="5:6">
+      <c r="E100" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="5:6">
+      <c r="E101" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="5:6">
+      <c r="E102" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="5:6">
+      <c r="E103" t="s">
+        <v>238</v>
+      </c>
+      <c r="F103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="5:6">
+      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+      <c r="F104" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="5:6">
+      <c r="E105" t="s">
+        <v>242</v>
+      </c>
+      <c r="F105" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="5:6">
+      <c r="E106" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="5:6">
+      <c r="E107" t="s">
+        <v>246</v>
+      </c>
+      <c r="F107" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="5:6">
+      <c r="E108" t="s">
+        <v>248</v>
+      </c>
+      <c r="F108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="5:6">
+      <c r="E109" t="s">
+        <v>250</v>
+      </c>
+      <c r="F109" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="5:6">
+      <c r="E110" t="s">
+        <v>252</v>
+      </c>
+      <c r="F110" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="5:5">
+      <c r="E111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="5:5">
+      <c r="E112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="5:5">
+      <c r="E113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="5:5">
+      <c r="E114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="5:5">
+      <c r="E115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="5:5">
+      <c r="E116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="5:5">
+      <c r="E117" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="5:5">
+      <c r="E118" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="5:5">
+      <c r="E119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="5:5">
+      <c r="E120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="5:5">
+      <c r="E121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="5:5">
+      <c r="E122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="5:5">
+      <c r="E123" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="5:5">
+      <c r="E124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="5:5">
+      <c r="E125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="5:5">
+      <c r="E126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="5:5">
+      <c r="E127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="5:5">
+      <c r="E128" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="5:5">
+      <c r="E129" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="5:5">
+      <c r="E130" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="5:5">
+      <c r="E131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="5:5">
+      <c r="E132" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="5:5">
+      <c r="E133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="5:5">
+      <c r="E134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="5:5">
+      <c r="E135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="5:5">
+      <c r="E136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="5:5">
+      <c r="E137" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="5:5">
+      <c r="E138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="5:5">
+      <c r="E139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="5:5">
+      <c r="E140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="5:5">
+      <c r="E141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="5:5">
+      <c r="E142" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="5:5">
+      <c r="E143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="5:5">
+      <c r="E144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="5:5">
+      <c r="E145" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="5:5">
+      <c r="E146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="5:5">
+      <c r="E147" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="5:5">
+      <c r="E148" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="5:5">
+      <c r="E149" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="5:5">
+      <c r="E150" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="5:5">
+      <c r="E151" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="5:5">
+      <c r="E152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="5:5">
+      <c r="E153" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="5:5">
+      <c r="E154" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="5:5">
+      <c r="E155" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="5:5">
+      <c r="E156" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="5:5">
+      <c r="E157" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="5:5">
+      <c r="E158" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="5:5">
+      <c r="E159" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="5:5">
+      <c r="E160" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="5:5">
+      <c r="E161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="5:5">
+      <c r="E162" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="5:5">
+      <c r="E163" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="5:5">
+      <c r="E164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="5:5">
+      <c r="E165" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="5:5">
+      <c r="E166" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="5:5">
+      <c r="E167" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="5:5">
+      <c r="E168" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="5:5">
+      <c r="E169" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="5:5">
+      <c r="E170" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="5:5">
+      <c r="E171" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="5:5">
+      <c r="E172" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="5:5">
+      <c r="E173" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="5:5">
+      <c r="E174" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="5:5">
+      <c r="E175" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="5:5">
+      <c r="E176" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="5:5">
+      <c r="E177" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="5:5">
+      <c r="E178" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="5:5">
+      <c r="E179" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="5:5">
+      <c r="E180" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="5:5">
+      <c r="E181" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="5:5">
+      <c r="E182" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="5:5">
+      <c r="E183" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="5:5">
+      <c r="E184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="5:5">
+      <c r="E185" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="5:5">
+      <c r="E186" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="5:5">
+      <c r="E187" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="5:5">
+      <c r="E188" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="5:5">
+      <c r="E189" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="5:5">
+      <c r="E190" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="5:5">
+      <c r="E191" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="5:5">
+      <c r="E192" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="5:5">
+      <c r="E193" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="5:5">
+      <c r="E194" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="5:5">
+      <c r="E195" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="5:5">
+      <c r="E196" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="5:5">
+      <c r="E197" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="5:5">
+      <c r="E198" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="5:5">
+      <c r="E199" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="5:5">
+      <c r="E200" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="5:5">
+      <c r="E201" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="5:5">
+      <c r="E202" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="5:5">
+      <c r="E203" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="5:5">
+      <c r="E204" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="5:5">
+      <c r="E205" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="5:5">
+      <c r="E206" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="5:5">
+      <c r="E207" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="5:5">
+      <c r="E208" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="5:5">
+      <c r="E209" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="5:5">
+      <c r="E210" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="5:5">
+      <c r="E211" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="212" customHeight="1" spans="5:5">
+      <c r="E212" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="5:5">
+      <c r="E213" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="5:5">
+      <c r="E214" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="5:5">
+      <c r="E215" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="5:5">
+      <c r="E216" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="217" customHeight="1" spans="5:5">
+      <c r="E217" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="5:5">
+      <c r="E218" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="5:5">
+      <c r="E219" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="5:5">
+      <c r="E220" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="5:5">
+      <c r="E221" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="5:5">
+      <c r="E222" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="5:5">
+      <c r="E223" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="5:5">
+      <c r="E224" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="5:5">
+      <c r="E225" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="5:5">
+      <c r="E226" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="5:5">
+      <c r="E227" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="5:5">
+      <c r="E228" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="5:5">
+      <c r="E229" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="5:5">
+      <c r="E230" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="5:5">
+      <c r="E231" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="232" customHeight="1" spans="5:5">
+      <c r="E232" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="5:5">
+      <c r="E233" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="5:5">
+      <c r="E234" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="5:5">
+      <c r="E235" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="236" customHeight="1" spans="5:5">
+      <c r="E236" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="5:5">
+      <c r="E237" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="5:5">
+      <c r="E238" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="239" customHeight="1" spans="5:5">
+      <c r="E239" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="5:5">
+      <c r="E240" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="5:5">
+      <c r="E241" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="242" customHeight="1" spans="5:5">
+      <c r="E242" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="5:5">
+      <c r="E243" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="5:5">
+      <c r="E244" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="5:5">
+      <c r="E245" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="5:5">
+      <c r="E246" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="5:5">
+      <c r="E247" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="5:5">
+      <c r="E248" t="s">
+        <v>390</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
